--- a/assets uarm/2019 sol-penscri-justfilpol/S E B Ago2019/int fil examenes parciales.xlsx
+++ b/assets uarm/2019 sol-penscri-justfilpol/S E B Ago2019/int fil examenes parciales.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Alumno</t>
   </si>
@@ -147,16 +147,29 @@
   </si>
   <si>
     <t>Flores</t>
+  </si>
+  <si>
+    <t>Luna, Sara</t>
+  </si>
+  <si>
+    <t>Gonzales, Rassiel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,10 +201,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,8 +673,8 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>13</v>
+      <c r="B19" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -868,11 +882,28 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:C38">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>